--- a/downloads/englist1.xlsx
+++ b/downloads/englist1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ARS" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="All Materials" sheetId="1" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'All Materials'!$A$1:$U$413</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'All Materials'!$A$1:$U$418</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5802" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5872" uniqueCount="1951">
   <si>
     <t>NO</t>
   </si>
@@ -6472,6 +6472,72 @@
   </si>
   <si>
     <t>Sabancı Foundation</t>
+  </si>
+  <si>
+    <t>BRS_13</t>
+  </si>
+  <si>
+    <t>Çocuk Yaşta Evlilik ve Sağlık Sonuçları – Çocuk Ergen Genç ve Yetişkin Olmak</t>
+  </si>
+  <si>
+    <t>Child marriage, health, adolescence, adulthood</t>
+  </si>
+  <si>
+    <t>BÜKÇAM, UNFPA, Sabancı Vakfı</t>
+  </si>
+  <si>
+    <t>Brochures developed within the scope of the "Prevention of Child Marriages: Nevşehir Model" realized in 2019 with the partnership of Başkent University Women and Child Health and Family Planning Research and Application Center (BÜKÇAM) and UNFPA and with the support of Sabanci Foundation, are focuses on child marriages, childhood, adolescence, youth and adulthood.</t>
+  </si>
+  <si>
+    <t>EGT_14</t>
+  </si>
+  <si>
+    <t>EGT_15</t>
+  </si>
+  <si>
+    <t>Sağlık Hizmet Sunucuları ve Sosyal Hizmet Sunucular İçin Kaynak Kitap</t>
+  </si>
+  <si>
+    <t>Child marriage, social service, health</t>
+  </si>
+  <si>
+    <t>The training book developed within the scope of the "Prevention of Child Marriages: Nevşehir Model" realized in 2019 with the partnership of Başkent University Women and Child Health and Family Planning Research and Application Center (BÜKÇAM) and UNFPA and with the support of Sabanci Foundation, was prepared in order to guide the "health service providers and social service providers" who take part in prevention of child marriages in the city center of Nevşehir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sağlık Aracıları İçin Kaynak Kitap </t>
+  </si>
+  <si>
+    <t>Child marriage, Health Mediators, Health Mediator Modality</t>
+  </si>
+  <si>
+    <t>The training book developed within the scope of the "Prevention of Child Marriages: Nevşehir Model" realized in 2019 with the partnership of Başkent University Women and Child Health and Family Planning Research and Application Center (BÜKÇAM) and UNFPA and with the support of Sabanci Foundation, was prepared in order to guide the "training program of health mediators" that will carry out awareness raising activities about the health consequences of child marriages in the city center of Nevşehir.</t>
+  </si>
+  <si>
+    <t>FLM_07</t>
+  </si>
+  <si>
+    <t>FLM_08</t>
+  </si>
+  <si>
+    <t>Project film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çocuk Yaşta Evliliklerin Önlenmesi Projesi - Nevşehir Modeli </t>
+  </si>
+  <si>
+    <t>BÜKÇAM, UNFPA, Sabancı Foundation</t>
+  </si>
+  <si>
+    <t>The video clip created within the scope of the "Prevention of Child Marriages: Nevşehir Model" realized in 2019 with the partnership of Başkent University Women and Child Health and Family Planning Research and Application Center (BÜKÇAM) and UNFPA and with the support of Sabanci Foundation, was premired in “Ekim Zamanı” event and presents Health Mediators’ experiences.</t>
+  </si>
+  <si>
+    <t>Kız Leyla Music Video</t>
+  </si>
+  <si>
+    <t>Music Video</t>
+  </si>
+  <si>
+    <t>The song "Kız Leyla", written by Sezen Aksu, performed by Sertab Erener and given as a gift to the Sabancı Foundation, draws attention to child marriages.</t>
   </si>
 </sst>
 </file>
@@ -6721,7 +6787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6793,6 +6859,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16884,10 +16954,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1003"/>
+  <dimension ref="A1:AB1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="I213" sqref="I213"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H224" sqref="H224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21808,251 +21878,253 @@
       </c>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D174" s="17">
-        <v>2012</v>
-      </c>
-      <c r="E174" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F174" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="G174" s="17" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H174" s="17" t="s">
-        <v>1361</v>
+    <row r="174" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D174" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>1941</v>
       </c>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D175" s="17">
-        <v>2012</v>
-      </c>
-      <c r="E175" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F175" s="17" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G175" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="H175" s="17" t="s">
-        <v>1364</v>
+    <row r="175" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D175" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>1938</v>
       </c>
       <c r="I175" s="6"/>
     </row>
     <row r="176" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="C176" s="17" t="s">
         <v>1358</v>
       </c>
-      <c r="D176" s="21"/>
+      <c r="D176" s="17">
+        <v>2012</v>
+      </c>
       <c r="E176" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>1136</v>
+        <v>818</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="I176" s="6"/>
     </row>
     <row r="177" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="D177" s="17">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E177" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>545</v>
+        <v>765</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="I177" s="6"/>
     </row>
     <row r="178" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D178" s="17">
-        <v>2016</v>
-      </c>
+        <v>1358</v>
+      </c>
+      <c r="D178" s="21"/>
       <c r="E178" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F178" s="17" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="I178" s="6"/>
     </row>
     <row r="179" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D179" s="17">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E179" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F179" s="17" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>1377</v>
+        <v>545</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="I179" s="6"/>
     </row>
     <row r="180" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="C180" s="17" t="s">
         <v>1372</v>
       </c>
       <c r="D180" s="17">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E180" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F180" s="17" t="s">
-        <v>1380</v>
+        <v>1139</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="I180" s="6"/>
     </row>
     <row r="181" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="D181" s="17">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E181" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F181" s="17" t="s">
-        <v>203</v>
+        <v>1376</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="I181" s="6"/>
     </row>
     <row r="182" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B182" s="20" t="s">
-        <v>1389</v>
+        <v>197</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>1382</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D182" s="20"/>
+        <v>1372</v>
+      </c>
+      <c r="D182" s="17">
+        <v>2014</v>
+      </c>
       <c r="E182" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F182" s="17" t="s">
-        <v>203</v>
+        <v>1380</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="I182" s="6"/>
     </row>
     <row r="183" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="C183" s="17" t="s">
         <v>1384</v>
@@ -22061,25 +22133,25 @@
         <v>2015</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="F183" s="17" t="s">
-        <v>1391</v>
+        <v>203</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="I183" s="6"/>
     </row>
     <row r="184" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B184" s="17" t="s">
-        <v>1396</v>
+        <v>199</v>
+      </c>
+      <c r="B184" s="20" t="s">
+        <v>1389</v>
       </c>
       <c r="C184" s="17" t="s">
         <v>1384</v>
@@ -22089,163 +22161,165 @@
         <v>745</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>1395</v>
+        <v>203</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>1243</v>
+        <v>1388</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="I184" s="6"/>
     </row>
     <row r="185" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D185" s="17">
+        <v>2015</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G185" s="17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H185" s="17" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D186" s="20"/>
+      <c r="E186" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F186" s="17" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H186" s="17" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B185" s="17" t="s">
+      <c r="B187" s="17" t="s">
         <v>1401</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C187" s="17" t="s">
         <v>1398</v>
       </c>
-      <c r="D185" s="17">
+      <c r="D187" s="17">
         <v>2018</v>
       </c>
-      <c r="E185" s="17" t="s">
+      <c r="E187" s="17" t="s">
         <v>1399</v>
       </c>
-      <c r="F185" s="17" t="s">
+      <c r="F187" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G185" s="17" t="s">
+      <c r="G187" s="17" t="s">
         <v>1400</v>
       </c>
-      <c r="H185" s="17" t="s">
+      <c r="H187" s="17" t="s">
         <v>1402</v>
       </c>
-      <c r="I185" s="6"/>
-    </row>
-    <row r="186" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="22" t="s">
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B186" s="20" t="s">
+      <c r="B188" s="20" t="s">
         <v>1403</v>
       </c>
-      <c r="C186" s="20" t="s">
+      <c r="C188" s="20" t="s">
         <v>1398</v>
       </c>
-      <c r="D186" s="20">
+      <c r="D188" s="20">
         <v>2017</v>
       </c>
-      <c r="E186" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="F186" s="20" t="s">
+      <c r="E188" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="F188" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="G186" s="20" t="s">
+      <c r="G188" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="H186" s="20" t="s">
+      <c r="H188" s="20" t="s">
         <v>1404</v>
       </c>
-      <c r="I186" s="6"/>
-      <c r="J186" s="10"/>
-      <c r="K186" s="10"/>
-      <c r="L186" s="10"/>
-      <c r="M186" s="10"/>
-      <c r="N186" s="10"/>
-    </row>
-    <row r="187" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="22" t="s">
+      <c r="I188" s="6"/>
+      <c r="J188" s="10"/>
+      <c r="K188" s="10"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="10"/>
+      <c r="N188" s="10"/>
+    </row>
+    <row r="189" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B187" s="20" t="s">
+      <c r="B189" s="20" t="s">
         <v>1407</v>
       </c>
-      <c r="C187" s="20" t="s">
+      <c r="C189" s="20" t="s">
         <v>1398</v>
       </c>
-      <c r="D187" s="20">
+      <c r="D189" s="20">
         <v>2017</v>
       </c>
-      <c r="E187" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="F187" s="20" t="s">
+      <c r="E189" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="F189" s="20" t="s">
         <v>1405</v>
       </c>
-      <c r="G187" s="20" t="s">
+      <c r="G189" s="20" t="s">
         <v>1406</v>
       </c>
-      <c r="H187" s="20" t="s">
+      <c r="H189" s="20" t="s">
         <v>1408</v>
       </c>
-      <c r="I187" s="6"/>
-      <c r="J187" s="10"/>
-      <c r="K187" s="10"/>
-      <c r="L187" s="10"/>
-      <c r="M187" s="10"/>
-      <c r="N187" s="10"/>
-    </row>
-    <row r="188" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B188" s="17" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C188" s="17" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D188" s="21"/>
-      <c r="E188" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F188" s="17" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G188" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="H188" s="17" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I188" s="6"/>
-    </row>
-    <row r="189" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B189" s="17" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D189" s="21"/>
-      <c r="E189" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F189" s="17" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G189" s="17" t="s">
-        <v>860</v>
-      </c>
-      <c r="H189" s="17" t="s">
-        <v>1414</v>
-      </c>
       <c r="I189" s="6"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="10"/>
+      <c r="N189" s="10"/>
     </row>
     <row r="190" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="C190" s="17" t="s">
         <v>1398</v>
@@ -22255,22 +22329,22 @@
         <v>745</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>750</v>
+        <v>1409</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>1415</v>
+        <v>811</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="I190" s="6"/>
     </row>
     <row r="191" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="C191" s="17" t="s">
         <v>1398</v>
@@ -22280,22 +22354,22 @@
         <v>745</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>1405</v>
+        <v>1412</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>1418</v>
+        <v>860</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="I191" s="6"/>
     </row>
     <row r="192" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="C192" s="17" t="s">
         <v>1398</v>
@@ -22305,242 +22379,223 @@
         <v>745</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>1421</v>
+        <v>750</v>
       </c>
       <c r="G192" s="17" t="s">
-        <v>860</v>
+        <v>1415</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="I192" s="6"/>
     </row>
     <row r="193" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D193" s="20"/>
+        <v>1398</v>
+      </c>
+      <c r="D193" s="21"/>
       <c r="E193" s="17" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>1425</v>
+        <v>1405</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="I193" s="6"/>
     </row>
     <row r="194" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D194" s="21"/>
+      <c r="E194" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="H194" s="17" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="1:25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="16" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D195" s="17">
+        <v>2019</v>
+      </c>
+      <c r="E195" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H195" s="17" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+    </row>
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D196" s="20"/>
+      <c r="E196" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G196" s="17" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H196" s="17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B197" s="17" t="s">
         <v>1429</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C197" s="17" t="s">
         <v>1424</v>
       </c>
-      <c r="D194" s="17">
+      <c r="D197" s="17">
         <v>2017</v>
       </c>
-      <c r="E194" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F194" s="17" t="s">
+      <c r="E197" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F197" s="17" t="s">
         <v>1425</v>
       </c>
-      <c r="G194" s="17" t="s">
+      <c r="G197" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="H194" s="17" t="s">
+      <c r="H197" s="17" t="s">
         <v>1430</v>
       </c>
-      <c r="I194" s="6"/>
-    </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B195" s="17" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D195" s="20"/>
-      <c r="E195" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F195" s="17" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G195" s="17" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H195" s="17" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I195" s="6"/>
-    </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D196" s="17">
-        <v>2018</v>
-      </c>
-      <c r="E196" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F196" s="17" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G196" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H196" s="17" t="s">
-        <v>1437</v>
-      </c>
-      <c r="I196" s="6"/>
-      <c r="J196" s="10"/>
-      <c r="K196" s="10"/>
-      <c r="L196" s="10"/>
-      <c r="M196" s="10"/>
-      <c r="N196" s="10"/>
-      <c r="O196" s="10"/>
-      <c r="P196" s="10"/>
-      <c r="Q196" s="10"/>
-      <c r="R196" s="10"/>
-      <c r="S196" s="10"/>
-      <c r="T196" s="10"/>
-      <c r="U196" s="10"/>
-      <c r="V196" s="10"/>
-      <c r="W196" s="10"/>
-      <c r="X196" s="10"/>
-      <c r="Y196" s="10"/>
-    </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D197" s="17">
-        <v>2018</v>
-      </c>
-      <c r="E197" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F197" s="17" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G197" s="17" t="s">
-        <v>1439</v>
-      </c>
-      <c r="H197" s="17" t="s">
-        <v>1441</v>
-      </c>
       <c r="I197" s="6"/>
-      <c r="J197" s="10"/>
-      <c r="K197" s="10"/>
-      <c r="L197" s="10"/>
-      <c r="M197" s="10"/>
-      <c r="N197" s="10"/>
-      <c r="O197" s="10"/>
-      <c r="P197" s="10"/>
-      <c r="Q197" s="10"/>
-      <c r="R197" s="10"/>
-      <c r="S197" s="10"/>
-      <c r="T197" s="10"/>
-      <c r="U197" s="10"/>
-      <c r="V197" s="10"/>
-      <c r="W197" s="10"/>
-      <c r="X197" s="10"/>
-      <c r="Y197" s="10"/>
     </row>
     <row r="198" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D198" s="17">
-        <v>2014</v>
-      </c>
+        <v>1424</v>
+      </c>
+      <c r="D198" s="20"/>
       <c r="E198" s="17" t="s">
         <v>745</v>
       </c>
-      <c r="F198" s="23" t="s">
-        <v>203</v>
+      <c r="F198" s="17" t="s">
+        <v>1431</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D199" s="6">
-        <v>2016</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>1447</v>
-      </c>
-      <c r="H199" s="7" t="s">
-        <v>1449</v>
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D199" s="17">
+        <v>2018</v>
+      </c>
+      <c r="E199" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F199" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G199" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>1437</v>
       </c>
       <c r="I199" s="6"/>
-    </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="10"/>
+      <c r="N199" s="10"/>
+      <c r="O199" s="10"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
+      <c r="R199" s="10"/>
+      <c r="S199" s="10"/>
+      <c r="T199" s="10"/>
+      <c r="U199" s="10"/>
+      <c r="V199" s="10"/>
+      <c r="W199" s="10"/>
+      <c r="X199" s="10"/>
+      <c r="Y199" s="10"/>
+    </row>
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B200" s="17" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="D200" s="17">
         <v>2018</v>
@@ -22549,428 +22604,444 @@
         <v>745</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>1123</v>
+        <v>1438</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
       <c r="I200" s="6"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="10"/>
+      <c r="O200" s="10"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="10"/>
+      <c r="R200" s="10"/>
+      <c r="S200" s="10"/>
+      <c r="T200" s="10"/>
+      <c r="U200" s="10"/>
+      <c r="V200" s="10"/>
+      <c r="W200" s="10"/>
+      <c r="X200" s="10"/>
+      <c r="Y200" s="10"/>
     </row>
     <row r="201" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D201" s="6">
-        <v>2019</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H201" s="7" t="s">
-        <v>1458</v>
+      <c r="A201" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B201" s="17" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D201" s="17">
+        <v>2014</v>
+      </c>
+      <c r="E201" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F201" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G201" s="17" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H201" s="17" t="s">
+        <v>1445</v>
       </c>
       <c r="I201" s="6"/>
     </row>
     <row r="202" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>1461</v>
+        <v>217</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1448</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>1459</v>
+        <v>1442</v>
       </c>
       <c r="D202" s="6">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="H202" s="5" t="s">
-        <v>1462</v>
+        <v>745</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>1449</v>
       </c>
       <c r="I202" s="6"/>
     </row>
     <row r="203" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>1465</v>
+        <v>1451</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="D203" s="17">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E203" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F203" s="17" t="s">
-        <v>1464</v>
+        <v>1123</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>545</v>
+        <v>1450</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="I203" s="6"/>
     </row>
     <row r="204" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B204" s="17" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D204" s="17">
-        <v>2018</v>
-      </c>
-      <c r="E204" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F204" s="17" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G204" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="H204" s="17" t="s">
-        <v>1469</v>
+      <c r="A204" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D204" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>1458</v>
       </c>
       <c r="I204" s="6"/>
     </row>
     <row r="205" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B205" s="17" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D205" s="17">
-        <v>2018</v>
-      </c>
-      <c r="E205" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F205" s="17" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G205" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="H205" s="17" t="s">
-        <v>1472</v>
+      <c r="A205" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D205" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>1462</v>
       </c>
       <c r="I205" s="6"/>
     </row>
     <row r="206" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="D206" s="17">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E206" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="G206" s="17" t="s">
-        <v>1475</v>
+        <v>545</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>1477</v>
+        <v>1466</v>
       </c>
       <c r="I206" s="6"/>
     </row>
     <row r="207" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D207" s="6">
+      <c r="A207" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D207" s="17">
         <v>2018</v>
       </c>
-      <c r="E207" s="6" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H207" s="7" t="s">
-        <v>1482</v>
+      <c r="E207" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F207" s="17" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G207" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="H207" s="17" t="s">
+        <v>1469</v>
       </c>
       <c r="I207" s="6"/>
     </row>
     <row r="208" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
       <c r="D208" s="17">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E208" s="17" t="s">
         <v>745</v>
       </c>
       <c r="F208" s="17" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
       <c r="G208" s="17" t="s">
-        <v>1485</v>
+        <v>581</v>
       </c>
       <c r="H208" s="17" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="I208" s="6"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D209" s="17">
+        <v>2012</v>
+      </c>
+      <c r="E209" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F209" s="17" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G209" s="17" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H209" s="17" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D210" s="6">
+        <v>2018</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D211" s="17">
+        <v>2014</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F211" s="17" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G211" s="17" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H211" s="17" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B209" s="17" t="s">
+      <c r="B212" s="17" t="s">
         <v>1491</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C212" s="17" t="s">
         <v>1488</v>
       </c>
-      <c r="D209" s="17">
+      <c r="D212" s="17">
         <v>2015</v>
       </c>
-      <c r="E209" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F209" s="17" t="s">
+      <c r="E212" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F212" s="17" t="s">
         <v>1489</v>
       </c>
-      <c r="G209" s="17" t="s">
+      <c r="G212" s="17" t="s">
         <v>1490</v>
       </c>
-      <c r="H209" s="17" t="s">
+      <c r="H212" s="17" t="s">
         <v>1492</v>
-      </c>
-      <c r="I209" s="6"/>
-    </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B210" s="17" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C210" s="17" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D210" s="17">
-        <v>2019</v>
-      </c>
-      <c r="E210" s="17" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F210" s="17" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G210" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="H210" s="17" t="s">
-        <v>1493</v>
-      </c>
-      <c r="I210" s="6"/>
-    </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="H211" s="7" t="s">
-        <v>1495</v>
-      </c>
-      <c r="I211" s="6"/>
-    </row>
-    <row r="212" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B212" s="17" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D212" s="20"/>
-      <c r="E212" s="17" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F212" s="17" t="s">
-        <v>1498</v>
-      </c>
-      <c r="G212" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="H212" s="17" t="s">
-        <v>1500</v>
       </c>
       <c r="I212" s="6"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>1123</v>
+        <v>1457</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D213" s="20"/>
+        <v>1488</v>
+      </c>
+      <c r="D213" s="17">
+        <v>2019</v>
+      </c>
       <c r="E213" s="17" t="s">
-        <v>745</v>
+        <v>1454</v>
       </c>
       <c r="F213" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G213" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H213" s="17" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I213" s="6"/>
+    </row>
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="F214" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G213" s="17" t="s">
-        <v>1502</v>
-      </c>
-      <c r="H213" s="17" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I213" s="6"/>
-    </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B214" s="17" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D214" s="17">
-        <v>2011</v>
-      </c>
-      <c r="E214" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="F214" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G214" s="17" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H214" s="17" t="s">
-        <v>1506</v>
+      <c r="G214" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>1495</v>
       </c>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D215" s="17">
-        <v>2015</v>
-      </c>
+        <v>1496</v>
+      </c>
+      <c r="D215" s="20"/>
       <c r="E215" s="17" t="s">
-        <v>745</v>
+        <v>1497</v>
       </c>
       <c r="F215" s="17" t="s">
-        <v>1123</v>
+        <v>1498</v>
       </c>
       <c r="G215" s="17" t="s">
-        <v>1385</v>
+        <v>545</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="I215" s="6"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>1510</v>
+        <v>1123</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D216" s="17">
-        <v>2012</v>
-      </c>
+        <v>1501</v>
+      </c>
+      <c r="D216" s="20"/>
       <c r="E216" s="17" t="s">
         <v>745</v>
       </c>
@@ -22978,22 +23049,22 @@
         <v>203</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>236</v>
+        <v>1502</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="I216" s="6"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B217" s="17" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="D217" s="17">
         <v>2011</v>
@@ -23005,213 +23076,207 @@
         <v>203</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>1928</v>
+        <v>1106</v>
       </c>
       <c r="H217" s="17" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="I217" s="6"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B218" s="24" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C218" s="24" t="s">
-        <v>1514</v>
-      </c>
-      <c r="E218" s="24" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F218" s="24" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G218" s="24" t="s">
-        <v>1517</v>
-      </c>
-      <c r="H218" s="24" t="s">
-        <v>1518</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D218" s="17">
+        <v>2015</v>
+      </c>
+      <c r="E218" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F218" s="17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G218" s="17" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H218" s="17" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I218" s="6"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="E219" s="6">
-        <v>2019</v>
-      </c>
-      <c r="F219" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H219" s="6" t="s">
-        <v>1519</v>
+        <v>235</v>
+      </c>
+      <c r="B219" s="17" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D219" s="17">
+        <v>2012</v>
+      </c>
+      <c r="E219" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F219" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G219" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H219" s="17" t="s">
+        <v>1511</v>
       </c>
       <c r="I219" s="6"/>
-      <c r="J219" s="6"/>
     </row>
     <row r="220" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="E220" s="6">
+        <v>237</v>
+      </c>
+      <c r="B220" s="17" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D220" s="17">
+        <v>2011</v>
+      </c>
+      <c r="E220" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F220" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G220" s="17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H220" s="17" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="16" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D221" s="17">
         <v>2019</v>
       </c>
-      <c r="F220" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>1520</v>
-      </c>
-      <c r="H220" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I220" s="6"/>
-      <c r="J220" s="6"/>
-    </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="E221" s="6">
-        <v>2017</v>
-      </c>
-      <c r="F221" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H221" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I221" s="6"/>
-      <c r="J221" s="6"/>
-    </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E221" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F221" s="17" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G221" s="17" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H221" s="17" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="E222" s="6">
-        <v>2001</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>1419</v>
-      </c>
-      <c r="H222" s="6" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I222" s="6"/>
-      <c r="J222" s="6"/>
+        <v>1943</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D222" s="17">
+        <v>2016</v>
+      </c>
+      <c r="E222" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F222" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G222" s="17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H222" s="17" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I222" s="17"/>
     </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="E223" s="6">
-        <v>2009</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H223" s="6" t="s">
-        <v>1526</v>
-      </c>
-      <c r="I223" s="6"/>
-      <c r="J223" s="6"/>
+        <v>238</v>
+      </c>
+      <c r="B223" s="24" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E223" s="24" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F223" s="24" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G223" s="24" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H223" s="24" t="s">
+        <v>1518</v>
+      </c>
     </row>
     <row r="224" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E224" s="6">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>1527</v>
+        <v>1123</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>888</v>
@@ -23223,437 +23288,441 @@
         <v>848</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E226" s="6">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E227" s="6">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>1533</v>
+        <v>1419</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
     </row>
     <row r="228" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B228" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="C228" s="6" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E228" s="6">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
     </row>
     <row r="229" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E229" s="6">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
     </row>
     <row r="230" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E230" s="6">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
     </row>
     <row r="231" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E231" s="6">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E232" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
     </row>
     <row r="233" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>283</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B233" s="6"/>
       <c r="C233" s="6" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E233" s="6">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E234" s="6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
     </row>
     <row r="235" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E235" s="6">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F235" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>1123</v>
+        <v>1539</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
     </row>
     <row r="236" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E236" s="6">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E237" s="6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
     </row>
     <row r="238" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B238" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="C238" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E238" s="6">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
     </row>
     <row r="239" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="B239" s="6"/>
+        <v>284</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="C239" s="6" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E239" s="6">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="F239" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E240" s="6">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="F240" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>1558</v>
+        <v>1123</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>888</v>
@@ -23665,805 +23734,801 @@
         <v>848</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
     </row>
     <row r="242" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E242" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F242" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
     </row>
     <row r="243" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>311</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B243" s="6"/>
       <c r="C243" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E243" s="6">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F243" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
     </row>
     <row r="244" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B244" s="6"/>
       <c r="C244" s="6" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E244" s="6">
-        <v>1970</v>
+        <v>2015</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>1520</v>
+        <v>1556</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
     </row>
     <row r="245" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E245" s="6">
-        <v>1996</v>
+        <v>2017</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
     </row>
     <row r="246" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E246" s="6">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
     </row>
     <row r="247" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E247" s="6">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="F247" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
     </row>
     <row r="248" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E248" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F248" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>328</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B249" s="6"/>
       <c r="C249" s="6" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E249" s="6">
-        <v>2008</v>
+        <v>1970</v>
       </c>
       <c r="F249" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>1575</v>
+        <v>1520</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
     </row>
     <row r="250" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E250" s="6">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="F250" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
     </row>
     <row r="251" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E251" s="6">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
     </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E252" s="6">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="F252" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
     </row>
     <row r="253" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E253" s="6">
-        <v>1970</v>
+        <v>2014</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>1520</v>
+        <v>1573</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
     </row>
     <row r="254" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E254" s="6">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
       <c r="H254" s="6" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E255" s="6">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
       <c r="H255" s="6" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E256" s="6">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="F256" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
     </row>
     <row r="257" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E257" s="6">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="F257" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="H257" s="6" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
     </row>
     <row r="258" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E258" s="6">
-        <v>2011</v>
+        <v>1970</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>1592</v>
+        <v>1520</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
     </row>
     <row r="259" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E259" s="6">
-        <v>1979</v>
+        <v>2017</v>
       </c>
       <c r="F259" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>1520</v>
+        <v>1584</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
     </row>
     <row r="260" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="16" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E260" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F260" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="H260" s="6" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
     </row>
     <row r="261" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E261" s="6">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F261" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="H261" s="6" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
     </row>
     <row r="262" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="16" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E262" s="6">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="H262" s="6" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
     </row>
     <row r="263" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E263" s="6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
     </row>
     <row r="264" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="16" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E264" s="6">
-        <v>2017</v>
+        <v>1979</v>
       </c>
       <c r="F264" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>1603</v>
+        <v>1520</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
     </row>
     <row r="265" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E265" s="6">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="F265" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>1419</v>
+        <v>1595</v>
       </c>
       <c r="H265" s="6" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
     </row>
     <row r="266" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="16" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E266" s="6">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="F266" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
     </row>
     <row r="267" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E267" s="6">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F267" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
     </row>
     <row r="268" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="16" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E268" s="6">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F268" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="H268" s="6" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
     </row>
     <row r="269" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E269" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F269" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
     </row>
     <row r="270" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="16" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>888</v>
@@ -24475,79 +24540,79 @@
         <v>848</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>1612</v>
+        <v>1419</v>
       </c>
       <c r="H270" s="6" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
     </row>
     <row r="271" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E271" s="6">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="F271" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="H271" s="6" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
     </row>
     <row r="272" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="16" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E272" s="6">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F272" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="H272" s="6" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
     </row>
     <row r="273" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="16" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>888</v>
@@ -24559,219 +24624,219 @@
         <v>848</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="H273" s="6" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
     </row>
     <row r="274" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="16" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E274" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F274" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="H274" s="6" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
     </row>
     <row r="275" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E275" s="6">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="F275" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="H275" s="6" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
     </row>
     <row r="276" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="16" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E276" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F276" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>1624</v>
+        <v>1612</v>
       </c>
       <c r="H276" s="6" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
     </row>
     <row r="277" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="16" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E277" s="6">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="F277" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="H277" s="6" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
     </row>
     <row r="278" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="16" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E278" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F278" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>1123</v>
+        <v>1618</v>
       </c>
       <c r="H278" s="6" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
     </row>
     <row r="279" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="16" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E279" s="6">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F279" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="H279" s="6" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
     </row>
     <row r="280" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="16" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E280" s="6">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F280" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="H280" s="6" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="16" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>888</v>
@@ -24783,411 +24848,411 @@
         <v>848</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="H281" s="6" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
     </row>
     <row r="282" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="16" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E282" s="6">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="F282" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="H282" s="6" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
     </row>
     <row r="283" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="16" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E283" s="6">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F283" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>1637</v>
+        <v>1123</v>
       </c>
       <c r="H283" s="6" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
     </row>
     <row r="284" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="16" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E284" s="6">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F284" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="H284" s="6" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
     </row>
     <row r="285" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="16" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E285" s="6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F285" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
       <c r="H285" s="6" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
     </row>
     <row r="286" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="16" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E286" s="6">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F286" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="H286" s="6" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
     </row>
     <row r="287" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="16" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E287" s="6">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F287" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="H287" s="6" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
     </row>
     <row r="288" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="16" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E288" s="6">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="F288" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="H288" s="6" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
     </row>
     <row r="289" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="B289" s="6"/>
+        <v>429</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="C289" s="6" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E289" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F289" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="H289" s="6" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="B290" s="6"/>
+        <v>432</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>434</v>
+      </c>
       <c r="C290" s="6" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E290" s="6">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="F290" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="H290" s="6" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
     </row>
     <row r="291" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="16" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E291" s="6">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F291" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
       <c r="H291" s="6" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
     </row>
     <row r="292" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="16" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E292" s="6">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F292" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="H292" s="6" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
     </row>
     <row r="293" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="16" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E293" s="6">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="F293" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G293" s="6" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="H293" s="6" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
     </row>
     <row r="294" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>1660</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="B294" s="6"/>
       <c r="C294" s="6" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E294" s="6">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="F294" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G294" s="6" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
       <c r="H294" s="6" t="s">
-        <v>1661</v>
+        <v>1650</v>
       </c>
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
     </row>
     <row r="295" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>461</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="B295" s="6"/>
       <c r="C295" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E295" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F295" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
       <c r="H295" s="6" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
       <c r="I295" s="6"/>
       <c r="J295" s="6"/>
     </row>
     <row r="296" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="16" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>888</v>
@@ -25199,918 +25264,918 @@
         <v>848</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="H296" s="6" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="16" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E297" s="6">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="F297" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="H297" s="6" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
     </row>
     <row r="298" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="16" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E298" s="6">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="F298" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>1123</v>
+        <v>1657</v>
       </c>
       <c r="H298" s="6" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
     </row>
     <row r="299" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>473</v>
+        <v>1660</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E299" s="6">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="F299" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
     </row>
     <row r="300" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="16" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>286</v>
+        <v>461</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E300" s="6">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F300" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
     </row>
     <row r="301" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="16" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E301" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F301" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>1123</v>
+        <v>1664</v>
       </c>
       <c r="H301" s="6" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
     </row>
     <row r="302" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="16" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E302" s="6">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="F302" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="H302" s="6" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
     </row>
     <row r="303" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="16" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E303" s="6">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F303" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>1676</v>
+        <v>1123</v>
       </c>
       <c r="H303" s="6" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
     </row>
     <row r="304" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="16" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E304" s="6">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F304" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>1520</v>
+        <v>1669</v>
       </c>
       <c r="H304" s="6" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="B305" s="6"/>
+        <v>474</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="C305" s="6" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E305" s="6">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="F305" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="H305" s="6" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
     </row>
     <row r="306" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="16" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E306" s="6">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="F306" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>1681</v>
+        <v>1123</v>
       </c>
       <c r="H306" s="6" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
     </row>
     <row r="307" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="16" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E307" s="6">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="F307" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="H307" s="6" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
     </row>
     <row r="308" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="16" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E308" s="6">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="F308" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="H308" s="6" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
     </row>
     <row r="309" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="16" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E309" s="6">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F309" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G309" s="6" t="s">
-        <v>1687</v>
+        <v>1520</v>
       </c>
       <c r="H309" s="6" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
     </row>
     <row r="310" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>501</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B310" s="6"/>
       <c r="C310" s="6" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E310" s="6">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="F310" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="H310" s="6" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
     </row>
     <row r="311" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="B311" s="6"/>
+        <v>490</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>492</v>
+      </c>
       <c r="C311" s="6" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E311" s="6">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F311" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G311" s="6" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="H311" s="6" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
     </row>
     <row r="312" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="16" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>1696</v>
+        <v>495</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>1693</v>
+        <v>494</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>1694</v>
+        <v>888</v>
       </c>
       <c r="E312" s="6">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="H312" s="6" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
     </row>
     <row r="313" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="16" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E313" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F313" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
       <c r="H313" s="6" t="s">
-        <v>1699</v>
+        <v>1686</v>
       </c>
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
     </row>
     <row r="314" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="16" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E314" s="6">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F314" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G314" s="6" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
       <c r="H314" s="6" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
     </row>
     <row r="315" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="16" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E315" s="6">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="F315" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G315" s="6" t="s">
-        <v>1419</v>
+        <v>1689</v>
       </c>
       <c r="H315" s="6" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
     </row>
     <row r="316" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>518</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B316" s="6"/>
       <c r="C316" s="6" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E316" s="6">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F316" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G316" s="6" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="H316" s="6" t="s">
-        <v>1704</v>
+        <v>1692</v>
       </c>
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
     </row>
     <row r="317" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" s="16" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>521</v>
+        <v>1696</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>520</v>
+        <v>1693</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>888</v>
+        <v>1694</v>
       </c>
       <c r="E317" s="6">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="G317" s="6" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="H317" s="6" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
     </row>
     <row r="318" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="16" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E318" s="6">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F318" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G318" s="6" t="s">
-        <v>1123</v>
+        <v>1698</v>
       </c>
       <c r="H318" s="6" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
     </row>
     <row r="319" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="16" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E319" s="6">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F319" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G319" s="6" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="H319" s="6" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
     </row>
     <row r="320" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="16" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E320" s="6">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F320" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G320" s="6" t="s">
-        <v>1710</v>
+        <v>1419</v>
       </c>
       <c r="H320" s="6" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
     </row>
     <row r="321" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="16" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E321" s="6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F321" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G321" s="6" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="H321" s="6" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
     </row>
     <row r="322" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="16" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E322" s="6">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F322" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="H322" s="6" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
     </row>
     <row r="323" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="16" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E323" s="6">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="F323" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G323" s="6" t="s">
-        <v>1716</v>
+        <v>1123</v>
       </c>
       <c r="H323" s="6" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
     </row>
     <row r="324" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="16" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>1694</v>
+        <v>888</v>
       </c>
       <c r="E324" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F324" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="H324" s="6" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
     </row>
     <row r="325" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A325" s="16" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E325" s="6">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F325" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>1123</v>
+        <v>1710</v>
       </c>
       <c r="H325" s="6" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
     </row>
     <row r="326" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="16" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E326" s="6">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="F326" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>1721</v>
+        <v>1712</v>
       </c>
       <c r="H326" s="6" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
     </row>
     <row r="327" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="16" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E327" s="6">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="F327" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>1579</v>
+        <v>1714</v>
       </c>
       <c r="H327" s="6" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
     </row>
     <row r="328" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="16" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E328" s="6">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="F328" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G328" s="6" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="H328" s="6" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
     </row>
     <row r="329" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="16" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>744</v>
+        <v>1694</v>
       </c>
       <c r="E329" s="6">
         <v>2015</v>
@@ -26119,141 +26184,141 @@
         <v>848</v>
       </c>
       <c r="G329" s="6" t="s">
-        <v>1123</v>
+        <v>1718</v>
       </c>
       <c r="H329" s="6" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
     </row>
     <row r="330" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="16" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>744</v>
       </c>
       <c r="E330" s="6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F330" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>1727</v>
+        <v>1123</v>
       </c>
       <c r="H330" s="6" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
     </row>
     <row r="331" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>744</v>
       </c>
       <c r="E331" s="6">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="F331" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G331" s="6" t="s">
-        <v>1123</v>
+        <v>1721</v>
       </c>
       <c r="H331" s="6" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
     </row>
     <row r="332" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A332" s="16" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>545</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>744</v>
       </c>
       <c r="E332" s="6">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F332" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>1730</v>
+        <v>1579</v>
       </c>
       <c r="H332" s="6" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
     </row>
     <row r="333" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="16" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>744</v>
       </c>
       <c r="E333" s="6">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="F333" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G333" s="6" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="H333" s="6" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
     </row>
     <row r="334" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="16" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>744</v>
       </c>
       <c r="E334" s="6">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F334" s="6" t="s">
         <v>848</v>
@@ -26262,138 +26327,138 @@
         <v>1123</v>
       </c>
       <c r="H334" s="6" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
     </row>
     <row r="335" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="16" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>117</v>
+        <v>559</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>744</v>
       </c>
       <c r="E335" s="6">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="F335" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="H335" s="6" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
     </row>
     <row r="336" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="16" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>744</v>
       </c>
       <c r="E336" s="6">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F336" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G336" s="6" t="s">
-        <v>1737</v>
+        <v>1123</v>
       </c>
       <c r="H336" s="6" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
     </row>
     <row r="337" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="16" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>1488</v>
+        <v>744</v>
       </c>
       <c r="E337" s="6">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="F337" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="H337" s="6" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
     </row>
     <row r="338" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" s="16" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>34</v>
+        <v>527</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>1741</v>
+        <v>744</v>
       </c>
       <c r="E338" s="6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F338" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G338" s="6" t="s">
-        <v>1123</v>
+        <v>1732</v>
       </c>
       <c r="H338" s="6" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
     </row>
     <row r="339" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A339" s="16" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>1741</v>
+        <v>744</v>
       </c>
       <c r="E339" s="6">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F339" s="6" t="s">
         <v>848</v>
@@ -26402,552 +26467,552 @@
         <v>1123</v>
       </c>
       <c r="H339" s="6" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
     </row>
     <row r="340" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="16" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>584</v>
+        <v>117</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>1741</v>
+        <v>744</v>
       </c>
       <c r="E340" s="6">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F340" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G340" s="6" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="H340" s="6" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
     </row>
     <row r="341" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="16" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>1746</v>
+        <v>573</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>888</v>
+        <v>744</v>
       </c>
       <c r="E341" s="6">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F341" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="H341" s="6" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
     </row>
     <row r="342" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="16" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>888</v>
+        <v>1488</v>
       </c>
       <c r="E342" s="6">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="F342" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
     </row>
     <row r="343" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="16" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>592</v>
+        <v>34</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>888</v>
+        <v>1741</v>
       </c>
       <c r="E343" s="6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F343" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1751</v>
+        <v>1123</v>
       </c>
       <c r="H343" s="6" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
     </row>
     <row r="344" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A344" s="16" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>888</v>
+        <v>1741</v>
       </c>
       <c r="E344" s="6">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F344" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1753</v>
+        <v>1123</v>
       </c>
       <c r="H344" s="6" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
     </row>
     <row r="345" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="16" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>888</v>
+        <v>1741</v>
       </c>
       <c r="E345" s="6">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="F345" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="H345" s="6" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
     </row>
     <row r="346" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="16" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>600</v>
+        <v>1746</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E346" s="6">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="H346" s="6" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
     </row>
     <row r="347" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="16" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E347" s="6">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F347" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="H347" s="6" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
     </row>
     <row r="348" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="16" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E348" s="6">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="F348" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="H348" s="6" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
     </row>
     <row r="349" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="16" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E349" s="6">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F349" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="H349" s="6" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
     </row>
     <row r="350" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="16" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E350" s="6">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="F350" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="H350" s="6" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
     </row>
-    <row r="351" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="16" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>1768</v>
+        <v>601</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E351" s="6">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="H351" s="6" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
     </row>
     <row r="352" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="16" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>1770</v>
+        <v>888</v>
       </c>
       <c r="E352" s="6">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F352" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
       <c r="H352" s="6" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
     </row>
     <row r="353" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="16" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E353" s="6">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="F353" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
       <c r="H353" s="6" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
     </row>
     <row r="354" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="16" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="D354" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E354" s="6">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="F354" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G354" s="6" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
       <c r="H354" s="6" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
     </row>
     <row r="355" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="16" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="D355" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E355" s="6">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F355" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
       <c r="H355" s="6" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
     </row>
-    <row r="356" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="16" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>629</v>
+        <v>1768</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E356" s="6">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="G356" s="6" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="H356" s="6" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
     </row>
     <row r="357" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="16" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>888</v>
+        <v>1770</v>
       </c>
       <c r="E357" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F357" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
       <c r="H357" s="6" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
     </row>
     <row r="358" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" s="16" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E358" s="6">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="F358" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G358" s="6" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
       <c r="H358" s="6" t="s">
-        <v>1784</v>
+        <v>1774</v>
       </c>
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
     </row>
     <row r="359" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A359" s="16" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>888</v>
@@ -26959,331 +27024,331 @@
         <v>848</v>
       </c>
       <c r="G359" s="6" t="s">
-        <v>1761</v>
+        <v>1775</v>
       </c>
       <c r="H359" s="6" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
     </row>
     <row r="360" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="16" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E360" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F360" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="H360" s="6" t="s">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
     </row>
     <row r="361" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="16" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E361" s="6">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F361" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G361" s="6" t="s">
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="H361" s="6" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
     </row>
     <row r="362" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A362" s="16" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>1792</v>
+        <v>632</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1790</v>
+        <v>631</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>1770</v>
+        <v>888</v>
       </c>
       <c r="E362" s="6">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="H362" s="6" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
     </row>
     <row r="363" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="16" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>1794</v>
+        <v>635</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>1694</v>
+        <v>888</v>
       </c>
       <c r="E363" s="6">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G363" s="6" t="s">
-        <v>1520</v>
+        <v>1783</v>
       </c>
       <c r="H363" s="6" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
     </row>
     <row r="364" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="16" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>1797</v>
+        <v>638</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E364" s="6">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>1796</v>
+        <v>1761</v>
       </c>
       <c r="H364" s="6" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
     </row>
     <row r="365" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="16" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>1799</v>
+        <v>641</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E365" s="6">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>1520</v>
+        <v>1786</v>
       </c>
       <c r="H365" s="6" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
     </row>
     <row r="366" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="16" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>592</v>
+        <v>644</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E366" s="6">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="F366" s="6" t="s">
         <v>848</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>1123</v>
+        <v>1788</v>
       </c>
       <c r="H366" s="6" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
     </row>
     <row r="367" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="16" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>655</v>
+        <v>1792</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>654</v>
+        <v>1790</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>888</v>
+        <v>1770</v>
       </c>
       <c r="E367" s="6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
       <c r="H367" s="6" t="s">
-        <v>1803</v>
+        <v>1793</v>
       </c>
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
     </row>
     <row r="368" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="16" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>657</v>
+        <v>1794</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>1804</v>
+        <v>647</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>888</v>
+        <v>1694</v>
       </c>
       <c r="E368" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F368" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>1805</v>
+        <v>1520</v>
       </c>
       <c r="H368" s="6" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
     </row>
     <row r="369" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="16" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>659</v>
+        <v>1797</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>1807</v>
+        <v>649</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E369" s="6">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="F369" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
       <c r="H369" s="6" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
     </row>
     <row r="370" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="16" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>662</v>
+        <v>1799</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E370" s="6">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="G370" s="6" t="s">
-        <v>1810</v>
+        <v>1520</v>
       </c>
       <c r="H370" s="6" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
     </row>
     <row r="371" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="16" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>1814</v>
+        <v>592</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>1812</v>
+        <v>591</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>888</v>
@@ -27292,671 +27357,671 @@
         <v>2017</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>1813</v>
+        <v>1123</v>
       </c>
       <c r="H371" s="6" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
     </row>
     <row r="372" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="16" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>1818</v>
+        <v>655</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>1816</v>
+        <v>654</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E372" s="6">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>1817</v>
+        <v>1802</v>
       </c>
       <c r="H372" s="6" t="s">
-        <v>1819</v>
+        <v>1803</v>
       </c>
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
     </row>
     <row r="373" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="16" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>666</v>
+        <v>1804</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E373" s="6">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F373" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G373" s="6" t="s">
-        <v>1123</v>
+        <v>1805</v>
       </c>
       <c r="H373" s="6" t="s">
-        <v>1820</v>
+        <v>1806</v>
       </c>
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
     </row>
     <row r="374" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="16" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>1822</v>
+        <v>659</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>669</v>
+        <v>1807</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E374" s="6">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="F374" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G374" s="6" t="s">
-        <v>1821</v>
+        <v>1808</v>
       </c>
       <c r="H374" s="6" t="s">
-        <v>1823</v>
+        <v>1809</v>
       </c>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
     </row>
     <row r="375" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="16" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>1792</v>
+        <v>662</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>1824</v>
+        <v>661</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="E375" s="6"/>
+      <c r="E375" s="6">
+        <v>2016</v>
+      </c>
       <c r="F375" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G375" s="6" t="s">
-        <v>1825</v>
+        <v>1810</v>
       </c>
       <c r="H375" s="6" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
     </row>
     <row r="376" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="16" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>295</v>
+        <v>1814</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>672</v>
+        <v>1812</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E376" s="6">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F376" s="6" t="s">
-        <v>1827</v>
+        <v>745</v>
       </c>
       <c r="G376" s="6" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
       <c r="H376" s="6" t="s">
-        <v>1829</v>
+        <v>1815</v>
       </c>
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
     </row>
     <row r="377" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="16" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>675</v>
+        <v>1818</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>674</v>
+        <v>1816</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E377" s="6">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="F377" s="6" t="s">
-        <v>1827</v>
+        <v>745</v>
       </c>
       <c r="G377" s="6" t="s">
-        <v>1830</v>
+        <v>1817</v>
       </c>
       <c r="H377" s="6" t="s">
-        <v>1831</v>
+        <v>1819</v>
       </c>
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
     </row>
     <row r="378" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="16" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E378" s="6">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F378" s="6" t="s">
-        <v>1827</v>
+        <v>745</v>
       </c>
       <c r="G378" s="6" t="s">
-        <v>1832</v>
+        <v>1123</v>
       </c>
       <c r="H378" s="6" t="s">
-        <v>1833</v>
+        <v>1820</v>
       </c>
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
     </row>
     <row r="379" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="16" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>680</v>
+        <v>1822</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>397</v>
+        <v>669</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E379" s="6">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="F379" s="6" t="s">
-        <v>1827</v>
+        <v>745</v>
       </c>
       <c r="G379" s="6" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
       <c r="H379" s="6" t="s">
-        <v>1619</v>
+        <v>1823</v>
       </c>
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
     </row>
     <row r="380" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="16" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>682</v>
+        <v>1792</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>458</v>
+        <v>1824</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="E380" s="6">
-        <v>2009</v>
-      </c>
+      <c r="E380" s="6"/>
       <c r="F380" s="6" t="s">
-        <v>1827</v>
+        <v>745</v>
       </c>
       <c r="G380" s="6" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
       <c r="H380" s="6" t="s">
-        <v>1835</v>
+        <v>1826</v>
       </c>
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
     </row>
     <row r="381" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="16" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>682</v>
+        <v>295</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E381" s="6">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F381" s="6" t="s">
         <v>1827</v>
       </c>
       <c r="G381" s="6" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="H381" s="6" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
     </row>
     <row r="382" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="16" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E382" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F382" s="6" t="s">
         <v>1827</v>
       </c>
       <c r="G382" s="6" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
       <c r="H382" s="6" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
     </row>
     <row r="383" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="16" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>515</v>
+        <v>678</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>514</v>
+        <v>677</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E383" s="6">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="F383" s="6" t="s">
         <v>1827</v>
       </c>
       <c r="G383" s="6" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
       <c r="H383" s="6" t="s">
-        <v>1702</v>
+        <v>1833</v>
       </c>
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
     </row>
     <row r="384" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="16" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>690</v>
+        <v>397</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E384" s="6">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F384" s="6" t="s">
         <v>1827</v>
       </c>
       <c r="G384" s="6" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="H384" s="6" t="s">
-        <v>1842</v>
+        <v>1619</v>
       </c>
       <c r="I384" s="6"/>
       <c r="J384" s="6"/>
     </row>
     <row r="385" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="16" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>1845</v>
+        <v>682</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>1843</v>
+        <v>458</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E385" s="6">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>745</v>
+        <v>1827</v>
       </c>
       <c r="G385" s="6" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
       <c r="H385" s="6" t="s">
-        <v>1846</v>
+        <v>1835</v>
       </c>
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
     </row>
     <row r="386" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="16" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>1849</v>
+        <v>682</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>1847</v>
+        <v>684</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>888</v>
       </c>
       <c r="E386" s="6">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F386" s="6" t="s">
-        <v>745</v>
+        <v>1827</v>
       </c>
       <c r="G386" s="6" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="H386" s="6" t="s">
-        <v>1850</v>
+        <v>1837</v>
       </c>
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
     </row>
     <row r="387" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="16" t="s">
-        <v>720</v>
+        <v>685</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E387" s="6">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>745</v>
+        <v>1827</v>
       </c>
       <c r="G387" s="6" t="s">
-        <v>1851</v>
+        <v>1838</v>
       </c>
       <c r="H387" s="6" t="s">
-        <v>1852</v>
+        <v>1839</v>
       </c>
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
     </row>
     <row r="388" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="16" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>43</v>
+        <v>515</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>724</v>
+        <v>514</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E388" s="6">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F388" s="6" t="s">
-        <v>745</v>
+        <v>1827</v>
       </c>
       <c r="G388" s="6" t="s">
-        <v>1853</v>
+        <v>1840</v>
       </c>
       <c r="H388" s="6" t="s">
-        <v>1854</v>
+        <v>1702</v>
       </c>
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
     </row>
     <row r="389" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="16" t="s">
-        <v>725</v>
+        <v>689</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>43</v>
+        <v>691</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>724</v>
+        <v>690</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E389" s="6">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>745</v>
+        <v>1827</v>
       </c>
       <c r="G389" s="6" t="s">
-        <v>1853</v>
+        <v>1841</v>
       </c>
       <c r="H389" s="6" t="s">
-        <v>1855</v>
+        <v>1842</v>
       </c>
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
     </row>
-    <row r="390" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="16" t="s">
-        <v>726</v>
+        <v>692</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>43</v>
+        <v>1845</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>727</v>
+        <v>1843</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E390" s="6">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="F390" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G390" s="6" t="s">
-        <v>1856</v>
+        <v>1844</v>
       </c>
       <c r="H390" s="6" t="s">
-        <v>1857</v>
+        <v>1846</v>
       </c>
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
     </row>
-    <row r="391" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" s="16" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>43</v>
+        <v>1849</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>729</v>
+        <v>1847</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E391" s="6">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F391" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G391" s="6" t="s">
-        <v>1858</v>
+        <v>1848</v>
       </c>
       <c r="H391" s="6" t="s">
-        <v>1859</v>
+        <v>1850</v>
       </c>
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
     </row>
     <row r="392" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" s="16" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>545</v>
+        <v>722</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>744</v>
       </c>
       <c r="E392" s="6">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="F392" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G392" s="6" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="H392" s="6" t="s">
-        <v>1861</v>
+        <v>1852</v>
       </c>
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
     </row>
     <row r="393" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="16" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>1862</v>
+        <v>744</v>
       </c>
       <c r="E393" s="6">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="F393" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G393" s="6" t="s">
-        <v>1863</v>
+        <v>1853</v>
       </c>
       <c r="H393" s="6" t="s">
-        <v>1864</v>
+        <v>1854</v>
       </c>
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
     </row>
     <row r="394" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A394" s="16" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>736</v>
+        <v>43</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>1862</v>
+        <v>744</v>
       </c>
       <c r="E394" s="6">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F394" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G394" s="6" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
       <c r="H394" s="6" t="s">
-        <v>1866</v>
+        <v>1855</v>
       </c>
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
     </row>
-    <row r="395" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="16" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>1190</v>
+        <v>43</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>1867</v>
+        <v>727</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1694</v>
+        <v>744</v>
       </c>
       <c r="E395" s="6">
         <v>2014</v>
@@ -27965,54 +28030,54 @@
         <v>745</v>
       </c>
       <c r="G395" s="6" t="s">
-        <v>1868</v>
+        <v>1856</v>
       </c>
       <c r="H395" s="6" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
     </row>
-    <row r="396" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="16" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>1190</v>
+        <v>43</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>1870</v>
+        <v>729</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>1694</v>
+        <v>744</v>
       </c>
       <c r="E396" s="6">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="F396" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G396" s="6" t="s">
-        <v>1871</v>
+        <v>1858</v>
       </c>
       <c r="H396" s="6" t="s">
-        <v>1872</v>
+        <v>1859</v>
       </c>
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
     </row>
     <row r="397" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A397" s="16" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>1875</v>
+        <v>545</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>1873</v>
+        <v>731</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>1694</v>
+        <v>744</v>
       </c>
       <c r="E397" s="6">
         <v>2018</v>
@@ -28021,26 +28086,26 @@
         <v>745</v>
       </c>
       <c r="G397" s="6" t="s">
-        <v>1874</v>
+        <v>1860</v>
       </c>
       <c r="H397" s="6" t="s">
-        <v>1876</v>
+        <v>1861</v>
       </c>
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
     </row>
     <row r="398" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A398" s="16" t="s">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1879</v>
+        <v>43</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>1877</v>
+        <v>733</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>1694</v>
+        <v>1862</v>
       </c>
       <c r="E398" s="6">
         <v>2018</v>
@@ -28049,79 +28114,79 @@
         <v>745</v>
       </c>
       <c r="G398" s="6" t="s">
-        <v>1878</v>
+        <v>1863</v>
       </c>
       <c r="H398" s="6" t="s">
-        <v>1880</v>
+        <v>1864</v>
       </c>
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
     </row>
     <row r="399" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A399" s="16" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>1883</v>
+        <v>736</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>1881</v>
+        <v>735</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>1694</v>
+        <v>1862</v>
       </c>
       <c r="E399" s="6">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="F399" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G399" s="6" t="s">
-        <v>1882</v>
+        <v>1865</v>
       </c>
       <c r="H399" s="6" t="s">
-        <v>1884</v>
+        <v>1866</v>
       </c>
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
     </row>
     <row r="400" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A400" s="16" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>1887</v>
+        <v>1190</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>1885</v>
+        <v>1867</v>
       </c>
       <c r="D400" s="6" t="s">
         <v>1694</v>
       </c>
       <c r="E400" s="6">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G400" s="6" t="s">
-        <v>1886</v>
+        <v>1868</v>
       </c>
       <c r="H400" s="6" t="s">
-        <v>1888</v>
+        <v>1869</v>
       </c>
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
     </row>
     <row r="401" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="16" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>598</v>
+        <v>1190</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>1889</v>
+        <v>1870</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>1694</v>
@@ -28133,79 +28198,79 @@
         <v>745</v>
       </c>
       <c r="G401" s="6" t="s">
-        <v>1890</v>
+        <v>1871</v>
       </c>
       <c r="H401" s="6" t="s">
-        <v>1891</v>
+        <v>1872</v>
       </c>
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
     </row>
     <row r="402" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>1894</v>
+        <v>1875</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>1892</v>
+        <v>1873</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>1694</v>
       </c>
       <c r="E402" s="6">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="G402" s="6" t="s">
-        <v>1893</v>
+        <v>1874</v>
       </c>
       <c r="H402" s="6" t="s">
-        <v>1895</v>
+        <v>1876</v>
       </c>
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
     </row>
     <row r="403" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A403" s="16" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>1898</v>
+        <v>1879</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>1896</v>
+        <v>1877</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>1694</v>
       </c>
       <c r="E403" s="6">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="F403" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G403" s="6" t="s">
-        <v>1897</v>
+        <v>1878</v>
       </c>
       <c r="H403" s="6" t="s">
-        <v>1899</v>
+        <v>1880</v>
       </c>
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
     </row>
     <row r="404" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A404" s="16" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>63</v>
+        <v>1883</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>705</v>
+        <v>1881</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>1694</v>
@@ -28217,51 +28282,51 @@
         <v>745</v>
       </c>
       <c r="G404" s="6" t="s">
-        <v>1900</v>
+        <v>1882</v>
       </c>
       <c r="H404" s="6" t="s">
-        <v>1901</v>
+        <v>1884</v>
       </c>
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
     </row>
     <row r="405" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="16" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>598</v>
+        <v>1887</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>1902</v>
+        <v>1885</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>1694</v>
       </c>
       <c r="E405" s="6">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="F405" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G405" s="6" t="s">
-        <v>1903</v>
+        <v>1886</v>
       </c>
       <c r="H405" s="6" t="s">
-        <v>1904</v>
+        <v>1888</v>
       </c>
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
     </row>
     <row r="406" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A406" s="16" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B406" s="6" t="s">
         <v>598</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>1905</v>
+        <v>1889</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>1694</v>
@@ -28270,82 +28335,82 @@
         <v>2018</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="G406" s="6" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="H406" s="6" t="s">
-        <v>708</v>
+        <v>1891</v>
       </c>
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
     </row>
     <row r="407" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="16" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>1909</v>
+        <v>1894</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>1907</v>
+        <v>1892</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>1694</v>
       </c>
       <c r="E407" s="6">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="F407" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G407" s="6" t="s">
-        <v>1908</v>
+        <v>1893</v>
       </c>
       <c r="H407" s="6" t="s">
-        <v>1910</v>
+        <v>1895</v>
       </c>
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
     </row>
     <row r="408" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A408" s="16" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>1913</v>
+        <v>1898</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>1911</v>
+        <v>1896</v>
       </c>
       <c r="D408" s="6" t="s">
         <v>1694</v>
       </c>
       <c r="E408" s="6">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F408" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G408" s="6" t="s">
-        <v>1912</v>
+        <v>1897</v>
       </c>
       <c r="H408" s="6" t="s">
-        <v>1914</v>
+        <v>1899</v>
       </c>
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
     </row>
     <row r="409" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="16" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>598</v>
+        <v>63</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>1915</v>
+        <v>705</v>
       </c>
       <c r="D409" s="6" t="s">
         <v>1694</v>
@@ -28357,51 +28422,51 @@
         <v>745</v>
       </c>
       <c r="G409" s="6" t="s">
-        <v>1916</v>
+        <v>1900</v>
       </c>
       <c r="H409" s="6" t="s">
-        <v>1917</v>
+        <v>1901</v>
       </c>
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
     </row>
     <row r="410" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="16" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>703</v>
+        <v>598</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>647</v>
+        <v>1902</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>1694</v>
       </c>
       <c r="E410" s="6">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F410" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G410" s="6" t="s">
-        <v>1918</v>
+        <v>1903</v>
       </c>
       <c r="H410" s="6" t="s">
-        <v>1919</v>
+        <v>1904</v>
       </c>
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
     </row>
     <row r="411" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="16" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>715</v>
+        <v>598</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>714</v>
+        <v>1905</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>1694</v>
@@ -28410,92 +28475,227 @@
         <v>2018</v>
       </c>
       <c r="F411" s="6" t="s">
-        <v>745</v>
+        <v>848</v>
       </c>
       <c r="G411" s="6" t="s">
-        <v>1920</v>
+        <v>1906</v>
       </c>
       <c r="H411" s="6" t="s">
-        <v>1921</v>
+        <v>708</v>
       </c>
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
     </row>
     <row r="412" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="16" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>1924</v>
+        <v>1909</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>1922</v>
+        <v>1907</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>1694</v>
       </c>
       <c r="E412" s="6">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="F412" s="6" t="s">
         <v>745</v>
       </c>
       <c r="G412" s="6" t="s">
-        <v>1923</v>
+        <v>1908</v>
       </c>
       <c r="H412" s="6" t="s">
-        <v>1925</v>
+        <v>1910</v>
       </c>
       <c r="I412" s="6"/>
       <c r="J412" s="6"/>
     </row>
     <row r="413" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A413" s="16" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>719</v>
+        <v>1913</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>718</v>
+        <v>1911</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>888</v>
+        <v>1694</v>
       </c>
       <c r="E413" s="6">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F413" s="6" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="G413" s="6" t="s">
-        <v>1926</v>
+        <v>1912</v>
       </c>
       <c r="H413" s="6" t="s">
-        <v>1927</v>
+        <v>1914</v>
       </c>
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
     </row>
-    <row r="414" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C414" s="6" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E414" s="6">
+        <v>2018</v>
+      </c>
+      <c r="F414" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="G414" s="6" t="s">
+        <v>1916</v>
+      </c>
+      <c r="H414" s="6" t="s">
+        <v>1917</v>
+      </c>
+      <c r="I414" s="6"/>
+      <c r="J414" s="6"/>
+    </row>
+    <row r="415" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E415" s="6">
+        <v>2013</v>
+      </c>
+      <c r="F415" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="G415" s="6" t="s">
+        <v>1918</v>
+      </c>
+      <c r="H415" s="6" t="s">
+        <v>1919</v>
+      </c>
+      <c r="I415" s="6"/>
+      <c r="J415" s="6"/>
+    </row>
+    <row r="416" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C416" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D416" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E416" s="6">
+        <v>2018</v>
+      </c>
+      <c r="F416" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="G416" s="6" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H416" s="6" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I416" s="6"/>
+      <c r="J416" s="6"/>
+    </row>
+    <row r="417" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E417" s="6">
+        <v>2014</v>
+      </c>
+      <c r="F417" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="G417" s="6" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H417" s="6" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I417" s="6"/>
+      <c r="J417" s="6"/>
+    </row>
+    <row r="418" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="E418" s="6">
+        <v>2007</v>
+      </c>
+      <c r="F418" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="G418" s="6" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H418" s="6" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I418" s="6"/>
+      <c r="J418" s="6"/>
+    </row>
+    <row r="419" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29067,8 +29267,13 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:U413">
+  <autoFilter ref="A1:U418">
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
@@ -29087,7 +29292,7 @@
     <mergeCell ref="H1:AB1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H218" r:id="rId1"/>
+    <hyperlink ref="H223" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -29096,13 +29301,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AB13"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -29470,11 +29678,40 @@
       </c>
       <c r="I13" s="6"/>
     </row>
+    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2019</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29598,10 +29835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AB14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30000,6 +30237,60 @@
         <v>1357</v>
       </c>
       <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30239,10 +30530,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30450,6 +30741,59 @@
         <v>1511</v>
       </c>
       <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2016</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
